--- a/output/ValueSet-CervicalScreeningStatus-1.xlsx
+++ b/output/ValueSet-CervicalScreeningStatus-1.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:49:36+10:00</t>
+    <t>2025-06-26T16:23:30+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
